--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220503_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220503_110800.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-05-03</t>
@@ -3654,7 +3654,6 @@
         <v>130</v>
       </c>
       <c r="F98">
-        <f/>
         <v>0</v>
       </c>
       <c r="G98" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220503_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220503_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="245">
   <si>
     <t>사이트</t>
   </si>
@@ -688,7 +688,7 @@
     <t>빅플래닛메이드</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MBC</t>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>NEXTAR</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1161,7 @@
         <v>209</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1190,7 +1187,7 @@
         <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1216,7 +1213,7 @@
         <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1242,7 +1239,7 @@
         <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1268,7 +1265,7 @@
         <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1320,7 +1317,7 @@
         <v>212</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1346,7 +1343,7 @@
         <v>213</v>
       </c>
       <c r="H9" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1372,7 +1369,7 @@
         <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1398,7 +1395,7 @@
         <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1424,7 +1421,7 @@
         <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1476,7 +1473,7 @@
         <v>217</v>
       </c>
       <c r="H14" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1528,7 +1525,7 @@
         <v>215</v>
       </c>
       <c r="H16" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1580,7 +1577,7 @@
         <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1606,7 +1603,7 @@
         <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1632,7 +1629,7 @@
         <v>209</v>
       </c>
       <c r="H20" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1658,7 +1655,7 @@
         <v>222</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1684,7 +1681,7 @@
         <v>209</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1710,7 +1707,7 @@
         <v>215</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1736,7 +1733,7 @@
         <v>215</v>
       </c>
       <c r="H24" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1762,7 +1759,7 @@
         <v>215</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1788,7 +1785,7 @@
         <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1814,7 +1811,7 @@
         <v>209</v>
       </c>
       <c r="H27" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1840,7 +1837,7 @@
         <v>215</v>
       </c>
       <c r="H28" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1866,7 +1863,7 @@
         <v>209</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1892,7 +1889,7 @@
         <v>214</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1918,7 +1915,7 @@
         <v>215</v>
       </c>
       <c r="H31" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1944,7 +1941,7 @@
         <v>214</v>
       </c>
       <c r="H32" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1970,7 +1967,7 @@
         <v>209</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1996,7 +1993,7 @@
         <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2022,7 +2019,7 @@
         <v>220</v>
       </c>
       <c r="H35" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2048,7 +2045,7 @@
         <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2074,7 +2071,7 @@
         <v>224</v>
       </c>
       <c r="H37" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2126,7 +2123,7 @@
         <v>220</v>
       </c>
       <c r="H39" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2152,7 +2149,7 @@
         <v>209</v>
       </c>
       <c r="H40" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2178,7 +2175,7 @@
         <v>225</v>
       </c>
       <c r="H41" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2230,7 +2227,7 @@
         <v>220</v>
       </c>
       <c r="H43" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2256,7 +2253,7 @@
         <v>220</v>
       </c>
       <c r="H44" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2308,7 +2305,7 @@
         <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2334,7 +2331,7 @@
         <v>215</v>
       </c>
       <c r="H47" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2360,7 +2357,7 @@
         <v>215</v>
       </c>
       <c r="H48" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2386,7 +2383,7 @@
         <v>217</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2412,7 +2409,7 @@
         <v>209</v>
       </c>
       <c r="H50" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2464,7 +2461,7 @@
         <v>212</v>
       </c>
       <c r="H52" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2490,7 +2487,7 @@
         <v>215</v>
       </c>
       <c r="H53" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2516,7 +2513,7 @@
         <v>227</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2542,7 +2539,7 @@
         <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2568,7 +2565,7 @@
         <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2594,7 +2591,7 @@
         <v>220</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2620,7 +2617,7 @@
         <v>224</v>
       </c>
       <c r="H58" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2646,7 +2643,7 @@
         <v>215</v>
       </c>
       <c r="H59" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2672,7 +2669,7 @@
         <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2698,7 +2695,7 @@
         <v>220</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2724,7 +2721,7 @@
         <v>229</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2750,7 +2747,7 @@
         <v>230</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2776,7 +2773,7 @@
         <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2854,7 +2851,7 @@
         <v>224</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2880,7 +2877,7 @@
         <v>232</v>
       </c>
       <c r="H68" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2906,7 +2903,7 @@
         <v>233</v>
       </c>
       <c r="H69" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2932,7 +2929,7 @@
         <v>213</v>
       </c>
       <c r="H70" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2958,7 +2955,7 @@
         <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2984,7 +2981,7 @@
         <v>234</v>
       </c>
       <c r="H72" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3010,7 +3007,7 @@
         <v>235</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3036,7 +3033,7 @@
         <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3062,7 +3059,7 @@
         <v>215</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3140,7 +3137,7 @@
         <v>213</v>
       </c>
       <c r="H78" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3244,7 +3241,7 @@
         <v>239</v>
       </c>
       <c r="H82" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3270,7 +3267,7 @@
         <v>220</v>
       </c>
       <c r="H83" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3296,7 +3293,7 @@
         <v>240</v>
       </c>
       <c r="H84" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3322,7 +3319,7 @@
         <v>231</v>
       </c>
       <c r="H85" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3348,7 +3345,7 @@
         <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3452,7 +3449,7 @@
         <v>220</v>
       </c>
       <c r="H90" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3478,7 +3475,7 @@
         <v>231</v>
       </c>
       <c r="H91" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3504,7 +3501,7 @@
         <v>239</v>
       </c>
       <c r="H92" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3530,7 +3527,7 @@
         <v>242</v>
       </c>
       <c r="H93" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3582,7 +3579,7 @@
         <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3608,7 +3605,7 @@
         <v>244</v>
       </c>
       <c r="H96" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3660,7 +3657,7 @@
         <v>220</v>
       </c>
       <c r="H98" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3712,7 +3709,7 @@
         <v>231</v>
       </c>
       <c r="H100" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3738,7 +3735,7 @@
         <v>213</v>
       </c>
       <c r="H101" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
